--- a/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_062025.xlsx
+++ b/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_062025.xlsx
@@ -133,13 +133,13 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>342259.0</v>
+        <v>960069.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>128706.0</v>
+        <v>403596.0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>213553.0</v>
+        <v>556473.0</v>
       </c>
     </row>
     <row r="4">
@@ -153,13 +153,13 @@
         <v>6.0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>22992.0</v>
+        <v>167852.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8778.0</v>
+        <v>77737.0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>14214.0</v>
+        <v>90115.0</v>
       </c>
     </row>
     <row r="5">
@@ -173,13 +173,13 @@
         <v>6.0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>16600.0</v>
+        <v>103640.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7015.0</v>
+        <v>46518.0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>9585.0</v>
+        <v>57122.0</v>
       </c>
     </row>
     <row r="6">
@@ -193,13 +193,13 @@
         <v>6.0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>24115.0</v>
+        <v>97357.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>10473.0</v>
+        <v>44285.0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>13642.0</v>
+        <v>53072.0</v>
       </c>
     </row>
     <row r="7">
@@ -213,13 +213,13 @@
         <v>6.0</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5562.0</v>
+        <v>31735.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2036.0</v>
+        <v>12888.0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>3526.0</v>
+        <v>18847.0</v>
       </c>
     </row>
     <row r="8">
@@ -233,13 +233,13 @@
         <v>6.0</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5301.0</v>
+        <v>35633.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2154.0</v>
+        <v>16620.0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>3147.0</v>
+        <v>19013.0</v>
       </c>
     </row>
     <row r="9">
@@ -253,13 +253,13 @@
         <v>6.0</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>5880.0</v>
+        <v>25712.0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2231.0</v>
+        <v>10083.0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>3649.0</v>
+        <v>15629.0</v>
       </c>
     </row>
     <row r="10">
@@ -273,13 +273,13 @@
         <v>6.0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>4254.0</v>
+        <v>23863.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2042.0</v>
+        <v>11157.0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>2212.0</v>
+        <v>12706.0</v>
       </c>
     </row>
     <row r="11">
@@ -293,13 +293,13 @@
         <v>6.0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>364.0</v>
+        <v>6012.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>48.0</v>
+        <v>2321.0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>316.0</v>
+        <v>3691.0</v>
       </c>
     </row>
     <row r="12">
@@ -313,13 +313,13 @@
         <v>6.0</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>2168.0</v>
+        <v>11724.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>806.0</v>
+        <v>4327.0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1362.0</v>
+        <v>7397.0</v>
       </c>
     </row>
     <row r="13">
@@ -373,13 +373,13 @@
         <v>6.0</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>4632.0</v>
+        <v>5265.0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>749.0</v>
+        <v>862.0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>3883.0</v>
+        <v>4403.0</v>
       </c>
     </row>
     <row r="16">
@@ -413,13 +413,13 @@
         <v>6.0</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>859.0</v>
+        <v>895.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>342.0</v>
+        <v>353.0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>517.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="18">
@@ -453,13 +453,13 @@
         <v>6.0</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>6832.0</v>
+        <v>50834.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2875.0</v>
+        <v>25777.0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>3957.0</v>
+        <v>25057.0</v>
       </c>
     </row>
     <row r="20">
@@ -473,13 +473,13 @@
         <v>6.0</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>3954.0</v>
+        <v>20583.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1566.0</v>
+        <v>8495.0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>2388.0</v>
+        <v>12088.0</v>
       </c>
     </row>
     <row r="21">
@@ -493,13 +493,13 @@
         <v>6.0</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>5829.0</v>
+        <v>23600.0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2215.0</v>
+        <v>9665.0</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>3614.0</v>
+        <v>13935.0</v>
       </c>
     </row>
     <row r="22">
@@ -513,13 +513,13 @@
         <v>6.0</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>539.0</v>
+        <v>7256.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>290.0</v>
+        <v>4039.0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>249.0</v>
+        <v>3217.0</v>
       </c>
     </row>
     <row r="23">
@@ -533,13 +533,13 @@
         <v>6.0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1488.0</v>
+        <v>11755.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>710.0</v>
+        <v>6417.0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>778.0</v>
+        <v>5338.0</v>
       </c>
     </row>
     <row r="24">
@@ -553,13 +553,13 @@
         <v>6.0</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>839.0</v>
+        <v>3775.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>200.0</v>
+        <v>962.0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>639.0</v>
+        <v>2813.0</v>
       </c>
     </row>
     <row r="25">
@@ -573,13 +573,13 @@
         <v>6.0</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2393.0</v>
+        <v>12429.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>700.0</v>
+        <v>3430.0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1693.0</v>
+        <v>8999.0</v>
       </c>
     </row>
     <row r="26">
@@ -593,13 +593,13 @@
         <v>6.0</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>1312.0</v>
+        <v>8077.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>415.0</v>
+        <v>3003.0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>897.0</v>
+        <v>5074.0</v>
       </c>
     </row>
     <row r="27">
@@ -613,13 +613,13 @@
         <v>6.0</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>614.0</v>
+        <v>3907.0</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>168.0</v>
+        <v>1241.0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>446.0</v>
+        <v>2666.0</v>
       </c>
     </row>
     <row r="28">
@@ -633,13 +633,13 @@
         <v>6.0</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>937.0</v>
+        <v>5037.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>445.0</v>
+        <v>2324.0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>492.0</v>
+        <v>2713.0</v>
       </c>
     </row>
     <row r="29">
@@ -653,13 +653,13 @@
         <v>6.0</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>145.0</v>
+        <v>1263.0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>54.0</v>
+        <v>512.0</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>91.0</v>
+        <v>751.0</v>
       </c>
     </row>
     <row r="30">
@@ -673,13 +673,13 @@
         <v>6.0</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>296.0</v>
+        <v>2362.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>27.0</v>
+        <v>345.0</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>269.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="31">
@@ -693,13 +693,13 @@
         <v>6.0</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>392.0</v>
+        <v>404.0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>57.0</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>335.0</v>
+        <v>347.0</v>
       </c>
     </row>
     <row r="32">
@@ -713,13 +713,13 @@
         <v>6.0</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>8538.0</v>
+        <v>8569.0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>4795.0</v>
+        <v>4812.0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>3743.0</v>
+        <v>3757.0</v>
       </c>
     </row>
     <row r="33">
@@ -733,13 +733,13 @@
         <v>6.0</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>7795.0</v>
+        <v>7902.0</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>4134.0</v>
+        <v>4182.0</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>3661.0</v>
+        <v>3720.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,13 +753,13 @@
         <v>6.0</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>364.0</v>
+        <v>377.0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>36.0</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>328.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="35">
@@ -773,13 +773,13 @@
         <v>6.0</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>1089.0</v>
+        <v>1184.0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>688.0</v>
+        <v>749.0</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>401.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="36">
@@ -793,7 +793,7 @@
         <v>6.0</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="37">
@@ -815,13 +815,13 @@
         <v>6.0</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>331.0</v>
+        <v>433.0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>134.0</v>
+        <v>169.0</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>197.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="38">
@@ -835,13 +835,13 @@
         <v>6.0</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>4411.0</v>
+        <v>5051.0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>881.0</v>
+        <v>1043.0</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>3530.0</v>
+        <v>4008.0</v>
       </c>
     </row>
     <row r="39">
@@ -855,13 +855,13 @@
         <v>6.0</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>209.0</v>
+        <v>231.0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>66.0</v>
+        <v>83.0</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>143.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="40">
@@ -875,13 +875,13 @@
         <v>6.0</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>559.0</v>
+        <v>606.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>115.0</v>
+        <v>124.0</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>444.0</v>
+        <v>482.0</v>
       </c>
     </row>
     <row r="41">
@@ -895,13 +895,13 @@
         <v>6.0</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>104.0</v>
+        <v>443.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>99.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="42">
@@ -915,13 +915,13 @@
         <v>6.0</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>511.0</v>
+        <v>735.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>54.0</v>
+        <v>86.0</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>457.0</v>
+        <v>649.0</v>
       </c>
     </row>
     <row r="43">
@@ -935,13 +935,13 @@
         <v>6.0</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>100.0</v>
+        <v>898.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>6.0</v>
+        <v>111.0</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>94.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="44">
@@ -955,7 +955,7 @@
         <v>6.0</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>8.0</v>
+        <v>41.0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="F44" s="3" t="n">
-        <v>8.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="45">
@@ -997,13 +997,13 @@
         <v>6.0</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>5167.0</v>
+        <v>5236.0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2463.0</v>
+        <v>2499.0</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>2704.0</v>
+        <v>2737.0</v>
       </c>
     </row>
     <row r="47">
@@ -1017,13 +1017,13 @@
         <v>6.0</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>797.0</v>
+        <v>1525.0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>330.0</v>
+        <v>556.0</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>467.0</v>
+        <v>969.0</v>
       </c>
     </row>
     <row r="48">
@@ -1037,13 +1037,13 @@
         <v>6.0</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>608.0</v>
+        <v>762.0</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>102.0</v>
+        <v>131.0</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>506.0</v>
+        <v>631.0</v>
       </c>
     </row>
     <row r="49">
@@ -1057,13 +1057,13 @@
         <v>6.0</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>136.0</v>
+        <v>410.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>80.0</v>
+        <v>210.0</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>56.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="50">
@@ -1077,13 +1077,13 @@
         <v>6.0</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>253.0</v>
+        <v>338.0</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>54.0</v>
+        <v>112.0</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>199.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="51">
@@ -1097,13 +1097,13 @@
         <v>6.0</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>1048.0</v>
+        <v>1461.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>298.0</v>
+        <v>423.0</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>750.0</v>
+        <v>1038.0</v>
       </c>
     </row>
     <row r="52">
@@ -1117,13 +1117,13 @@
         <v>6.0</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>583.0</v>
+        <v>1056.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>130.0</v>
+        <v>217.0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>453.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="53">
@@ -1137,13 +1137,13 @@
         <v>6.0</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>1779.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>577.0</v>
+        <v>582.0</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>1202.0</v>
+        <v>1249.0</v>
       </c>
     </row>
     <row r="54">
@@ -1157,13 +1157,13 @@
         <v>6.0</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>4364.0</v>
+        <v>4528.0</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2070.0</v>
+        <v>2196.0</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>2294.0</v>
+        <v>2332.0</v>
       </c>
     </row>
     <row r="55">
@@ -1177,13 +1177,13 @@
         <v>6.0</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>342.0</v>
+        <v>507.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>56.0</v>
+        <v>94.0</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>286.0</v>
+        <v>413.0</v>
       </c>
     </row>
     <row r="56">
@@ -1197,13 +1197,13 @@
         <v>6.0</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>74.0</v>
+        <v>219.0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>72.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="57">
@@ -1217,13 +1217,13 @@
         <v>6.0</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>52.0</v>
+        <v>193.0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>48.0</v>
+        <v>179.0</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="58">
@@ -1237,13 +1237,13 @@
         <v>6.0</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>42.0</v>
+        <v>64.0</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>6.0</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>79.0</v>
+        <v>220.0</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>49.0</v>
+        <v>114.0</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>30.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="60">
@@ -1277,13 +1277,13 @@
         <v>6.0</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>153.0</v>
+        <v>1201.0</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>98.0</v>
+        <v>673.0</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>55.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="61">
@@ -1297,13 +1297,13 @@
         <v>6.0</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>36939.0</v>
+        <v>53644.0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>14909.0</v>
+        <v>23034.0</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>22030.0</v>
+        <v>30610.0</v>
       </c>
     </row>
     <row r="62">
@@ -1317,13 +1317,13 @@
         <v>6.0</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>24847.0</v>
+        <v>26799.0</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>12857.0</v>
+        <v>13665.0</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>11990.0</v>
+        <v>13134.0</v>
       </c>
     </row>
     <row r="63">
@@ -1337,13 +1337,13 @@
         <v>6.0</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>11364.0</v>
+        <v>12359.0</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>5157.0</v>
+        <v>5655.0</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>6207.0</v>
+        <v>6704.0</v>
       </c>
     </row>
     <row r="64">
@@ -1357,13 +1357,13 @@
         <v>6.0</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>280.0</v>
+        <v>730.0</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>76.0</v>
+        <v>208.0</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>204.0</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="65">
@@ -1377,13 +1377,13 @@
         <v>6.0</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>2949.0</v>
+        <v>8157.0</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>764.0</v>
+        <v>2332.0</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>2185.0</v>
+        <v>5825.0</v>
       </c>
     </row>
     <row r="66">
@@ -1397,13 +1397,13 @@
         <v>6.0</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1155.0</v>
+        <v>3810.0</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>401.0</v>
+        <v>1423.0</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>754.0</v>
+        <v>2387.0</v>
       </c>
     </row>
     <row r="67">
@@ -1417,13 +1417,13 @@
         <v>6.0</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>617.0</v>
+        <v>1454.0</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>133.0</v>
+        <v>299.0</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>484.0</v>
+        <v>1155.0</v>
       </c>
     </row>
     <row r="68">
@@ -1437,13 +1437,13 @@
         <v>6.0</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>165.0</v>
+        <v>421.0</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>34.0</v>
+        <v>85.0</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>131.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="69">
@@ -1457,13 +1457,13 @@
         <v>6.0</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>109.0</v>
+        <v>132.0</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>103.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="70">
@@ -1477,13 +1477,13 @@
         <v>6.0</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>189.0</v>
+        <v>241.0</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>16.0</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>173.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="71">
@@ -1497,13 +1497,13 @@
         <v>6.0</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>1827.0</v>
+        <v>2125.0</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>627.0</v>
+        <v>667.0</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>1200.0</v>
+        <v>1458.0</v>
       </c>
     </row>
     <row r="72">
@@ -1517,13 +1517,13 @@
         <v>6.0</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>15348.0</v>
+        <v>16508.0</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>4113.0</v>
+        <v>4386.0</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>11235.0</v>
+        <v>12122.0</v>
       </c>
     </row>
     <row r="73">
@@ -1537,13 +1537,13 @@
         <v>6.0</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>2050.0</v>
+        <v>2838.0</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>727.0</v>
+        <v>1084.0</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>1323.0</v>
+        <v>1754.0</v>
       </c>
     </row>
     <row r="74">
@@ -1557,13 +1557,13 @@
         <v>6.0</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>1613.0</v>
+        <v>4099.0</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>521.0</v>
+        <v>1506.0</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>1092.0</v>
+        <v>2593.0</v>
       </c>
     </row>
     <row r="75">
@@ -1577,13 +1577,13 @@
         <v>6.0</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>12595.0</v>
+        <v>15271.0</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>4272.0</v>
+        <v>5160.0</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>8323.0</v>
+        <v>10111.0</v>
       </c>
     </row>
     <row r="76">
@@ -1597,13 +1597,13 @@
         <v>6.0</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>52.0</v>
+        <v>236.0</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>2.0</v>
+        <v>42.0</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>50.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="77">
@@ -1617,13 +1617,13 @@
         <v>6.0</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>214.0</v>
+        <v>617.0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>40.0</v>
+        <v>164.0</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>174.0</v>
+        <v>453.0</v>
       </c>
     </row>
     <row r="78">
@@ -1637,13 +1637,13 @@
         <v>6.0</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>99.0</v>
+        <v>208.0</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>92.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="79">
@@ -1657,15 +1657,13 @@
         <v>6.0</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>376.0</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>88.0</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>1.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="80">
@@ -1679,13 +1677,13 @@
         <v>6.0</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>1166.0</v>
+        <v>2275.0</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>204.0</v>
+        <v>472.0</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>962.0</v>
+        <v>1803.0</v>
       </c>
     </row>
     <row r="81">
@@ -1699,13 +1697,13 @@
         <v>6.0</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>424.0</v>
+        <v>805.0</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>114.0</v>
+        <v>290.0</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>310.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="82">
@@ -1719,13 +1717,13 @@
         <v>6.0</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>301.0</v>
+        <v>598.0</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>141.0</v>
+        <v>239.0</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>160.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="83">
@@ -1739,13 +1737,13 @@
         <v>6.0</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>10323.0</v>
+        <v>10678.0</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>3270.0</v>
+        <v>3338.0</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>7053.0</v>
+        <v>7340.0</v>
       </c>
     </row>
     <row r="84">
@@ -1759,7 +1757,7 @@
         <v>6.0</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>62.0</v>
+        <v>118.0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1767,7 +1765,7 @@
         </is>
       </c>
       <c r="F84" s="3" t="n">
-        <v>62.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="85">
@@ -1781,13 +1779,13 @@
         <v>6.0</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>347.0</v>
+        <v>360.0</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>278.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="86">
@@ -1801,13 +1799,13 @@
         <v>6.0</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>4866.0</v>
+        <v>7420.0</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>2228.0</v>
+        <v>3796.0</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>2638.0</v>
+        <v>3624.0</v>
       </c>
     </row>
     <row r="87">
@@ -1821,13 +1819,13 @@
         <v>6.0</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>608.0</v>
+        <v>1075.0</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>120.0</v>
+        <v>318.0</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>488.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="88">
@@ -1841,13 +1839,13 @@
         <v>6.0</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>2581.0</v>
+        <v>2582.0</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>527.0</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>2054.0</v>
+        <v>2055.0</v>
       </c>
     </row>
     <row r="89">
@@ -1861,13 +1859,13 @@
         <v>6.0</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>85.0</v>
+        <v>173.0</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>75.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="90">
@@ -1881,13 +1879,13 @@
         <v>6.0</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>91.0</v>
+        <v>122.0</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>73.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="91">
@@ -1901,13 +1899,13 @@
         <v>6.0</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>60.0</v>
+        <v>472.0</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>8.0</v>
+        <v>161.0</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>52.0</v>
+        <v>311.0</v>
       </c>
     </row>
     <row r="92">
@@ -1921,13 +1919,13 @@
         <v>6.0</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>9712.0</v>
+        <v>9755.0</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>2839.0</v>
+        <v>2863.0</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>6873.0</v>
+        <v>6892.0</v>
       </c>
     </row>
     <row r="93">
@@ -1941,13 +1939,13 @@
         <v>6.0</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>18302.0</v>
+        <v>18324.0</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>3678.0</v>
+        <v>3683.0</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>14624.0</v>
+        <v>14641.0</v>
       </c>
     </row>
     <row r="94">
@@ -1961,13 +1959,13 @@
         <v>6.0</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>149.0</v>
+        <v>239.0</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>124.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="95">
@@ -1981,18 +1979,18 @@
         <v>6.0</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>275.0</v>
+        <v>2969.0</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>102.0</v>
+        <v>1205.0</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>173.0</v>
+        <v>1764.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>808802.0</v>
+        <v>808702.0</v>
       </c>
       <c r="B96" t="n">
         <v>2025.0</v>
@@ -2001,18 +1999,18 @@
         <v>6.0</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>63.0</v>
+        <v>226.0</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>15.0</v>
+        <v>103.0</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>48.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>808805.0</v>
+        <v>808801.0</v>
       </c>
       <c r="B97" t="n">
         <v>2025.0</v>
@@ -2021,18 +2019,18 @@
         <v>6.0</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>28.0</v>
+        <v>488.0</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>14.0</v>
+        <v>97.0</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>14.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>808806.0</v>
+        <v>808802.0</v>
       </c>
       <c r="B98" t="n">
         <v>2025.0</v>
@@ -2041,18 +2039,18 @@
         <v>6.0</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>51.0</v>
+        <v>316.0</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>29.0</v>
+        <v>110.0</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>22.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>808807.0</v>
+        <v>808803.0</v>
       </c>
       <c r="B99" t="n">
         <v>2025.0</v>
@@ -2061,288 +2059,282 @@
         <v>6.0</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>43.0</v>
+        <v>642.0</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>18.0</v>
+        <v>57.0</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>25.0</v>
+        <v>585.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
+        <v>808804.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>246.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>808805.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>568.0</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>326.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>808806.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>271.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>808807.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>141.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
         <v>808808.0</v>
       </c>
-      <c r="B100" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D100" s="1" t="n">
+      <c r="B104" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>558.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>808810.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D105" s="1" t="n">
         <v>35.0</v>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E105" s="2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>808811.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>261.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>808812.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F100" s="3" t="n">
+      <c r="F107" s="3" t="n">
         <v>35.0</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>808810.0</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D101" s="1" t="n">
+    <row r="108">
+      <c r="A108" t="n">
+        <v>808814.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>366.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>808815.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E109" s="2" t="n">
         <v>5.0</v>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F109" s="3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>808816.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>151.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>808817.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>183.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>808818.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F101" s="3" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>808811.0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="E102" s="2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F102" s="3" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>808812.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F103" s="3" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>808814.0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="E104" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F104" s="3" t="n">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>808815.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E105" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>808816.0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D106" s="1" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="F106" s="3" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>808817.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="E107" s="2" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F107" s="3" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>808818.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D108" s="1" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F108" s="3" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>808819.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="E109" s="2" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F109" s="3" t="n">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>808822.0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E110" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F110" s="3" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>808881.0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D111" s="1" t="n">
-        <v>305.0</v>
-      </c>
-      <c r="E111" s="2" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="F111" s="3" t="n">
-        <v>244.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>808882.0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D112" s="1" t="n">
-        <v>342.0</v>
-      </c>
-      <c r="E112" s="2" t="n">
-        <v>67.0</v>
-      </c>
       <c r="F112" s="3" t="n">
-        <v>275.0</v>
+        <v>413.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>808885.0</v>
+        <v>808819.0</v>
       </c>
       <c r="B113" t="n">
         <v>2025.0</v>
@@ -2351,18 +2343,18 @@
         <v>6.0</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>80.0</v>
+        <v>388.0</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>16.0</v>
+        <v>69.0</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>64.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>808887.0</v>
+        <v>808820.0</v>
       </c>
       <c r="B114" t="n">
         <v>2025.0</v>
@@ -2371,18 +2363,18 @@
         <v>6.0</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>54.0</v>
+        <v>184.0</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>51.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>808888.0</v>
+        <v>808822.0</v>
       </c>
       <c r="B115" t="n">
         <v>2025.0</v>
@@ -2391,20 +2383,18 @@
         <v>6.0</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>60.0</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>17.0</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>11.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>808892.0</v>
+        <v>808881.0</v>
       </c>
       <c r="B116" t="n">
         <v>2025.0</v>
@@ -2413,18 +2403,18 @@
         <v>6.0</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>27.0</v>
+        <v>3582.0</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>3.0</v>
+        <v>1062.0</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>24.0</v>
+        <v>2520.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>808893.0</v>
+        <v>808882.0</v>
       </c>
       <c r="B117" t="n">
         <v>2025.0</v>
@@ -2433,18 +2423,18 @@
         <v>6.0</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>40.0</v>
+        <v>2569.0</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>1.0</v>
+        <v>492.0</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>39.0</v>
+        <v>2077.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>808894.0</v>
+        <v>808885.0</v>
       </c>
       <c r="B118" t="n">
         <v>2025.0</v>
@@ -2453,18 +2443,18 @@
         <v>6.0</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>53.0</v>
+        <v>925.0</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>18.0</v>
+        <v>225.0</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>35.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>808895.0</v>
+        <v>808887.0</v>
       </c>
       <c r="B119" t="n">
         <v>2025.0</v>
@@ -2473,18 +2463,18 @@
         <v>6.0</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>30.0</v>
+        <v>899.0</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>7.0</v>
+        <v>227.0</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>23.0</v>
+        <v>672.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>808896.0</v>
+        <v>808888.0</v>
       </c>
       <c r="B120" t="n">
         <v>2025.0</v>
@@ -2493,18 +2483,18 @@
         <v>6.0</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>59.0</v>
+        <v>386.0</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>9.0</v>
+        <v>58.0</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>50.0</v>
+        <v>328.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>808897.0</v>
+        <v>808892.0</v>
       </c>
       <c r="B121" t="n">
         <v>2025.0</v>
@@ -2513,18 +2503,18 @@
         <v>6.0</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>128.0</v>
+        <v>734.0</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>26.0</v>
+        <v>151.0</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>102.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>808898.0</v>
+        <v>808893.0</v>
       </c>
       <c r="B122" t="n">
         <v>2025.0</v>
@@ -2533,18 +2523,18 @@
         <v>6.0</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>62.0</v>
+        <v>282.0</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>49.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>808899.0</v>
+        <v>808894.0</v>
       </c>
       <c r="B123" t="n">
         <v>2025.0</v>
@@ -2553,18 +2543,18 @@
         <v>6.0</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>14.0</v>
+        <v>461.0</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>2.0</v>
+        <v>206.0</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>12.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>808901.0</v>
+        <v>808895.0</v>
       </c>
       <c r="B124" t="n">
         <v>2025.0</v>
@@ -2573,18 +2563,18 @@
         <v>6.0</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>438.0</v>
+        <v>574.0</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>224.0</v>
+        <v>190.0</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>214.0</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>808902.0</v>
+        <v>808896.0</v>
       </c>
       <c r="B125" t="n">
         <v>2025.0</v>
@@ -2593,33 +2583,133 @@
         <v>6.0</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>211.0</v>
+        <v>1079.0</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>37.0</v>
+        <v>223.0</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>174.0</v>
+        <v>856.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
+        <v>808897.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>327.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>808898.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>423.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>808899.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>593.0</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>271.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>808901.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>3169.0</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>1811.0</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>1358.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>808902.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>1383.0</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>1084.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
         <v>808903.0</v>
       </c>
-      <c r="B126" t="n">
-        <v>2025.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D126" s="1" t="n">
-        <v>274.0</v>
-      </c>
-      <c r="E126" s="2" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="F126" s="3" t="n">
-        <v>154.0</v>
+      <c r="B131" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>640.0</v>
       </c>
     </row>
   </sheetData>
